--- a/spécification fonctionnelle NAPI articles.xlsx
+++ b/spécification fonctionnelle NAPI articles.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eleve7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\Cours Laravel\napi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
   <si>
     <t>Nom de l'intégrateur</t>
   </si>
@@ -183,27 +183,18 @@
     <t>ArticleControler</t>
   </si>
   <si>
-    <t>CHANSAUD Gaby / TAIE Parea</t>
-  </si>
-  <si>
     <t>monSite/articles</t>
   </si>
   <si>
     <t>articles.blade.php</t>
   </si>
   <si>
-    <t>Afficher la liste des articles du site</t>
-  </si>
-  <si>
     <t>monSite/articles/new</t>
   </si>
   <si>
     <t>monSite/articles/{userID}</t>
   </si>
   <si>
-    <t>Afficher la liste des articles d'un user précis (userId)</t>
-  </si>
-  <si>
     <t>article-form.blade.php</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
     <t>article-create-confirmation.blade.php</t>
   </si>
   <si>
-    <t>Créer un nouveau article</t>
-  </si>
-  <si>
     <t>monSite/articles/{articleID}</t>
   </si>
   <si>
@@ -247,6 +235,21 @@
   </si>
   <si>
     <t>monSite/articles/{articleID}/delete</t>
+  </si>
+  <si>
+    <t>Afficher tous les articles du site</t>
+  </si>
+  <si>
+    <t>Confirmation de la création de l'article</t>
+  </si>
+  <si>
+    <t>Afficher la liste des articles par user (userId)</t>
+  </si>
+  <si>
+    <t>CHANSAUD Gaby</t>
+  </si>
+  <si>
+    <t>monSite/article</t>
   </si>
 </sst>
 </file>
@@ -554,38 +557,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -871,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -935,13 +938,13 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -951,163 +954,163 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1145,21 +1148,21 @@
     </row>
     <row r="3" spans="2:4" ht="22.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1167,10 +1170,10 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1178,10 +1181,10 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1189,10 +1192,10 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1200,10 +1203,10 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1211,10 +1214,10 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1222,10 +1225,10 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1233,10 +1236,10 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1244,10 +1247,10 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1255,19 +1258,19 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:4" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="9"/>
